--- a/inst/extdata/description.xlsx
+++ b/inst/extdata/description.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c770e11f011a8c48/DKM/Válallkozás/TMC_Personal/KasznarEmese Ped IBD/TMCKasznarEmesePedIBD/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c770e11f011a8c48/DKM/Stats_R/R/Martys.website.projects/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{003D5CBA-6A3A-438C-90F0-680B5A026A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF59C1A-D35D-465D-B67C-62D9D6BD63B4}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{003D5CBA-6A3A-438C-90F0-680B5A026A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE6FD6A1-4450-48A9-A216-D15696B8440E}"/>
   <bookViews>
-    <workbookView xWindow="-15870" yWindow="-5145" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{5DF53F7C-CBA3-4C77-B423-B440F55901C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DF53F7C-CBA3-4C77-B423-B440F55901C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>col.ID</t>
   </si>
@@ -66,39 +68,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>StDev</t>
-  </si>
-  <si>
-    <t>SD5neg</t>
-  </si>
-  <si>
-    <t>SD4neg</t>
-  </si>
-  <si>
-    <t>SD3neg</t>
-  </si>
-  <si>
-    <t>SD2neg</t>
-  </si>
-  <si>
-    <t>SD1neg</t>
-  </si>
-  <si>
-    <t>SD0</t>
-  </si>
-  <si>
-    <t>SD1</t>
-  </si>
-  <si>
-    <t>SD2</t>
-  </si>
-  <si>
-    <t>SD3</t>
-  </si>
-  <si>
-    <t>SD4</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -108,16 +77,52 @@
     <t>median</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>meansd</t>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>P999</t>
   </si>
 </sst>
 </file>
@@ -161,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1AB551-227B-45B9-A532-95770313E0F2}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -536,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -553,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -570,13 +576,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,16 +590,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,16 +607,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.01</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,16 +624,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,16 +641,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -652,16 +658,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -669,16 +675,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>0.15</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,16 +692,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -703,16 +709,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -720,16 +726,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,16 +743,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0.85</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,278 +760,89 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>0.9</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0.95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
+      </c>
+      <c r="C18">
+        <v>0.97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>0.99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>0.999</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B483C668-2BE8-49CE-BE7F-01C9DD55FB03}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
